--- a/F407_PACK_V10C/SCH/F407_PACK_V10C_F407开发板_V1.0焊接清单.xlsx
+++ b/F407_PACK_V10C/SCH/F407_PACK_V10C_F407开发板_V1.0焊接清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="304">
   <si>
     <r>
       <t>FileName</t>
@@ -758,9 +758,6 @@
     <t>U12</t>
   </si>
   <si>
-    <t>HS0038</t>
-  </si>
-  <si>
     <t>Photo Modules for PCM Remote Control Systems</t>
   </si>
   <si>
@@ -970,6 +967,14 @@
   </si>
   <si>
     <t>2016.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS0038B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS0038B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1528,8 +1533,8 @@
   </sheetPr>
   <dimension ref="A1:N198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1552,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1567,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1636,7 +1641,7 @@
         <v>69</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>69</v>
@@ -2000,7 +2005,7 @@
         <v>94</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>95</v>
@@ -2081,7 +2086,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>3</v>
@@ -2203,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>106</v>
@@ -2255,7 +2260,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>119</v>
@@ -2426,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>128</v>
@@ -2629,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>51</v>
@@ -2693,7 +2698,7 @@
         <v>153</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>153</v>
@@ -2754,7 +2759,7 @@
         <v>157</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>106</v>
@@ -2787,7 +2792,7 @@
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2816,7 +2821,7 @@
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2963,7 +2968,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3473,7 +3478,7 @@
         <v>14</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -3553,7 +3558,7 @@
         <v>199</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>46</v>
@@ -3582,7 +3587,7 @@
         <v>201</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>46</v>
@@ -3640,7 +3645,7 @@
         <v>205</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>205</v>
@@ -3954,13 +3959,13 @@
         <v>232</v>
       </c>
       <c r="D95" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F95" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="G95" s="15" t="s">
         <v>15</v>
@@ -3980,19 +3985,19 @@
         <v>1</v>
       </c>
       <c r="C96" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="E96" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="F96" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="F96" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="G96" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H96" s="15"/>
       <c r="J96" s="8"/>
@@ -4009,19 +4014,19 @@
         <v>1</v>
       </c>
       <c r="C97" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E97" s="15" t="s">
+      <c r="F97" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F97" s="15" t="s">
+      <c r="G97" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="H97" s="15"/>
       <c r="J97" s="8"/>
@@ -4041,16 +4046,16 @@
         <v>63</v>
       </c>
       <c r="D98" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E98" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E98" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="F98" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G98" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="H98" s="15"/>
       <c r="J98" s="8"/>
@@ -4070,13 +4075,13 @@
         <v>64</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G99" s="15" t="s">
         <v>48</v>
@@ -4099,13 +4104,13 @@
         <v>65</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E100" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>61</v>
@@ -4125,16 +4130,16 @@
         <v>1</v>
       </c>
       <c r="C101" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="E101" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="F101" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>50</v>
@@ -4157,16 +4162,16 @@
         <v>66</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F102" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G102" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="H102" s="15"/>
       <c r="J102" s="8"/>
@@ -4186,16 +4191,16 @@
         <v>67</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E103" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F103" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="G103" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="H103" s="15"/>
       <c r="J103" s="8"/>
@@ -4212,16 +4217,16 @@
         <v>1</v>
       </c>
       <c r="C104" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="E104" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F104" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="G104" s="15" t="s">
         <v>106</v>
@@ -4241,19 +4246,19 @@
         <v>2</v>
       </c>
       <c r="C105" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="E105" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="F105" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="G105" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="H105" s="15"/>
       <c r="J105" s="8"/>
@@ -4270,19 +4275,19 @@
         <v>1</v>
       </c>
       <c r="C106" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="E106" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="F106" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="G106" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="H106" s="15"/>
       <c r="J106" s="8"/>
@@ -4299,16 +4304,16 @@
         <v>1</v>
       </c>
       <c r="C107" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="E107" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="F107" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="G107" s="15" t="s">
         <v>106</v>
@@ -4328,16 +4333,16 @@
         <v>1</v>
       </c>
       <c r="C108" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="E108" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F108" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>106</v>
@@ -4357,16 +4362,16 @@
         <v>1</v>
       </c>
       <c r="C109" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="E109" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F109" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="G109" s="15" t="s">
         <v>106</v>
